--- a/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_REC300.xlsx
+++ b/fuentes/contenidos/grado08/guion06/SolicitudGrafica_CN_08_06_REC300.xlsx
@@ -580,7 +580,7 @@
     <t>IMG10</t>
   </si>
   <si>
-    <t>CN_08_01_CO_REC300</t>
+    <t>CN_08_06_CO_REC300</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2366,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_CO_REC300_IMG01n.png</v>
+        <v>CN_08_06_CO_REC300_IMG01n.png</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="H10" s="14" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_CO_REC300_IMG01a.png</v>
+        <v>CN_08_06_CO_REC300_IMG01a.png</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F74" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_CO_REC300_IMG02n.png</v>
+        <v>CN_08_06_CO_REC300_IMG02n.png</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="H11" s="14" t="str">
         <f t="shared" ref="H11:H74" si="2">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_CO_REC300_IMG02a.png</v>
+        <v>CN_08_06_CO_REC300_IMG02a.png</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC300_IMG03n.png</v>
+        <v>CN_08_06_CO_REC300_IMG03n.png</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="H12" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC300_IMG03a.png</v>
+        <v>CN_08_06_CO_REC300_IMG03a.png</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC300_IMG04n.png</v>
+        <v>CN_08_06_CO_REC300_IMG04n.png</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="H13" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC300_IMG04a.png</v>
+        <v>CN_08_06_CO_REC300_IMG04a.png</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC300_IMG05n.png</v>
+        <v>CN_08_06_CO_REC300_IMG05n.png</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC300_IMG05a.png</v>
+        <v>CN_08_06_CO_REC300_IMG05a.png</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC300_IMG06n.png</v>
+        <v>CN_08_06_CO_REC300_IMG06n.png</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2785,7 +2785,7 @@
       </c>
       <c r="H15" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC300_IMG06a.png</v>
+        <v>CN_08_06_CO_REC300_IMG06a.png</v>
       </c>
       <c r="I15" s="14" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC300_IMG07n.png</v>
+        <v>CN_08_06_CO_REC300_IMG07n.png</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="H16" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC300_IMG07a.png</v>
+        <v>CN_08_06_CO_REC300_IMG07a.png</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC300_IMG08n.png</v>
+        <v>CN_08_06_CO_REC300_IMG08n.png</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC300_IMG08a.png</v>
+        <v>CN_08_06_CO_REC300_IMG08a.png</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC300_IMG09n.png</v>
+        <v>CN_08_06_CO_REC300_IMG09n.png</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC300_IMG09a.png</v>
+        <v>CN_08_06_CO_REC300_IMG09a.png</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CN_08_01_CO_REC300_IMG10n.png</v>
+        <v>CN_08_06_CO_REC300_IMG10n.png</v>
       </c>
       <c r="G19" s="14" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="H19" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CN_08_01_CO_REC300_IMG10a.png</v>
+        <v>CN_08_06_CO_REC300_IMG10a.png</v>
       </c>
       <c r="I19" s="14" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
